--- a/i_codebooks/D4_DU_MS-COHORT.xlsx
+++ b/i_codebooks/D4_DU_MS-COHORT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>medatata_name</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>D4_DU_MS-COHORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note that date_MS is necessary included in the interval between cohort_entry_date and cohort_exit_date, this must be checked for abundance of security
+</t>
   </si>
 </sst>
 </file>
@@ -749,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3821,11 +3825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z973"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6:H7"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3901,7 +3905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="115.2">
       <c r="A3" s="32" t="s">
         <v>40</v>
       </c>
@@ -3910,7 +3914,9 @@
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="G3" s="32" t="s">
         <v>46</v>
       </c>

--- a/i_codebooks/D4_DU_MS-COHORT.xlsx
+++ b/i_codebooks/D4_DU_MS-COHORT.xlsx
@@ -190,11 +190,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,95 +454,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3829,7 +3837,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3906,7 +3914,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="115.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="33" t="s">
